--- a/trunk/tmp/详细设计_数据远传.xlsx
+++ b/trunk/tmp/详细设计_数据远传.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="1"/>
@@ -16,14 +16,17 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc354579333" localSheetId="1">数据传输模块!$B$3</definedName>
+    <definedName name="_Toc354579334" localSheetId="1">数据传输模块!$B$8</definedName>
+    <definedName name="_Toc354579335" localSheetId="1">数据传输模块!$B$10</definedName>
+    <definedName name="_Toc354579336" localSheetId="1">数据传输模块!$B$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$A$1:$O$42</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <r>
       <t>1</t>
@@ -49,7 +52,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -61,7 +64,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -83,7 +86,7 @@
         <b/>
         <sz val="22"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -208,7 +211,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -219,7 +222,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -230,7 +233,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -241,7 +244,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -252,7 +255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -263,7 +266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -274,7 +277,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -285,12 +288,1324 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>Level DEBUG</t>
+  </si>
+  <si>
+    <t>Level WARN</t>
+  </si>
+  <si>
+    <t>Level ERROR</t>
+  </si>
+  <si>
+    <t>Level FATAL</t>
+  </si>
+  <si>
+    <r>
+      <t>日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块主要用来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>在系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>或程序中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生的、要求通知用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的任何重要事情，并在事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>看器中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用程序、安全和系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>事件。通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>使用事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>看器中的日志，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取有关硬件、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件和系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件的信息，并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监视远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上的安全事件。日志可帮助确定和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断当前系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的根源，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以帮助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>预测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>潜在的系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块设计原则</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 日期目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出。按照日期将日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出到不同文件，能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>够应对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大数据量存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据精确到日期的日志文件提取。当达到一定的大小，整合后另存到相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2. 可分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理，以行的格式表示。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3. 可定位。日志信息出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的位置，行列信息等。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4. 可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>展性。例如将日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>展到数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5. 可控性。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日志的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>控制其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出范</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.1.2 日志模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块级别</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置配置文件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象都被分配了一个日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。从低到高分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>五</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Debug、Info、Warn、Error、Fatal：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>表 1 日志分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INFO level表明 消息在粗粒度级别上突出强调应用程序的运行过程。</t>
+  </si>
+  <si>
+    <t>Level INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INFO level表明 消息在粗粒度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上突出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用程序的运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEBUG Level指出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>粒度信息事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对调试应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用程序是非常有帮助的。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,19 +1613,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -318,7 +1633,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -362,7 +1677,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -371,7 +1686,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -380,7 +1695,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -389,26 +1704,140 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MingLiU"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -418,7 +1847,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,10 +1866,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,98 +1985,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>48</xdr:col>
-          <xdr:colOff>897</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5121" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5121"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>12037</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6146" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6146"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -620,7 +1993,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="84D793"/>
+        <a:sysClr val="window" lastClr="C7EDCA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -913,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B11:B14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -943,16 +2316,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="69">
+    <row r="3" spans="1:3" ht="69">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -960,17 +2335,159 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -978,7 +2495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1153,10 +2670,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AJ57" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1168,40 +2685,15 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="5121" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>48</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="5121" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="5121" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1215,40 +2707,15 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="6146" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="6146" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="6146" r:id="rId2"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/trunk/tmp/详细设计_数据远传.xlsx
+++ b/trunk/tmp/详细设计_数据远传.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <definedName name="_Toc354579334" localSheetId="1">数据传输模块!$B$8</definedName>
     <definedName name="_Toc354579335" localSheetId="1">数据传输模块!$B$10</definedName>
     <definedName name="_Toc354579336" localSheetId="1">数据传输模块!$B$16</definedName>
+    <definedName name="_Toc354579337" localSheetId="1">数据传输模块!$B$29</definedName>
+    <definedName name="_Toc354579338" localSheetId="1">数据传输模块!$B$30</definedName>
+    <definedName name="_Toc354579343" localSheetId="1">数据传输模块!$B$259</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$A$1:$O$42</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="123">
   <si>
     <r>
       <t>1</t>
@@ -324,7 +327,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t>模块主要用来</t>
     </r>
@@ -1608,13 +1610,1702 @@
       <t>用程序是非常有帮助的。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.2 模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>概述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.2.1 模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构划分</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四个部分，如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所示。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">图1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Logger </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象封装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日志文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出接口。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) Log4net logger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>logger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象，指定方式完成日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出到指定位置（控制台、文件、数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件等）。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3) Log4net config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Log4net的配置文件，配置logger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象的相关属性。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4) File （日志保存文件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>采集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的数据日志以日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位，用文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>形式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行保存，如下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所示：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 日志保存方式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.3 模</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块详细设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.3.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、接口以及之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的静</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>态结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构和关系，其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所示。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.3.2 序列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建日志文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中日志文件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建序列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所示。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建日志文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) 写日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日志文件中生成日志的序列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所示。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5写日志</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3) 日志文件rollingbackup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统生成日志达到一定大小后进行备份并创建新日志文件的序列图，如下图所示。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6日志文件rollingbackup</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.3.3 成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1) Config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssemblyInfo.cs加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(3) Logger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.3.4 函数接口</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>表 2函数接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Return value</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Function description</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Logger</t>
+  </si>
+  <si>
+    <t>getInstance</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>获得单体模式实体</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>WriteInfoLog</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>格式化输出串</t>
+  </si>
+  <si>
+    <r>
+      <t>写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Log</t>
+    </r>
+  </si>
+  <si>
+    <t>args</t>
+  </si>
+  <si>
+    <t>params object[]</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>WriteDebugLog</t>
+  </si>
+  <si>
+    <r>
+      <t>写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Debug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Log</t>
+    </r>
+  </si>
+  <si>
+    <t>WriteWarnLog</t>
+  </si>
+  <si>
+    <r>
+      <t>写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Warn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Log</t>
+    </r>
+  </si>
+  <si>
+    <t>WriteErrorLog</t>
+  </si>
+  <si>
+    <r>
+      <t>写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Log</t>
+    </r>
+  </si>
+  <si>
+    <t>WriteFatalLog</t>
+  </si>
+  <si>
+    <r>
+      <t>写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fatal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Log</t>
+    </r>
+  </si>
+  <si>
+    <t>FuncEntryLog</t>
+  </si>
+  <si>
+    <r>
+      <t>函数入口日志，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级别</t>
+    </r>
+  </si>
+  <si>
+    <t>FuncExitLog</t>
+  </si>
+  <si>
+    <r>
+      <t>函数退出日志，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级别</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1726,7 +3417,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1765,8 +3455,51 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="Century"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="NSimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1779,8 +3512,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF948A54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1840,6 +3579,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1847,7 +3671,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1875,8 +3699,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1890,17 +3723,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1983,6 +3861,1848 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7170" name="Rectangle 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="514350" y="7181850"/>
+          <a:ext cx="4057650" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210175" y="8067675"/>
+          <a:ext cx="1571625" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="11325225"/>
+          <a:ext cx="2505075" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7171" name="Rectangle 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="742950" y="14668500"/>
+          <a:ext cx="7010400" cy="4895850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>535200</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>37200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="619125" y="14678025"/>
+          <a:ext cx="6631200" cy="4914000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7172" name="Rectangle 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="771525" y="20335875"/>
+          <a:ext cx="5543550" cy="5229225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>410210</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="809625" y="20335875"/>
+          <a:ext cx="4810760" cy="5231765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>629920</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="26584275"/>
+          <a:ext cx="4468495" cy="5247640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7173" name="Rectangle 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="790575" y="26746200"/>
+          <a:ext cx="5543550" cy="5219700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7178" name="Text Box 10"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="33232725"/>
+          <a:ext cx="6096000" cy="10001250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>&lt;configSections&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>&lt;section </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>name="log4net" type="log4net.Config.Log4NetConfigurationSectionHandler,log4net-net-1.2.11"&gt;&lt;/section&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>  &lt;/configSections&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>&lt;log4net&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>    &lt;root&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>      &lt;level value="WARN"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>      &lt;appender-ref ref="LogFileAppender"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>      &lt;appender-ref ref="RollingFileAppender" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>      &lt;appender-ref ref="ConsoleAppender"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>    &lt;/root&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>    &lt;logger name="AppSender.Logging"&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>      &lt;level value="DEBUG"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>    &lt;/logger&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>    &lt;appender name="LogFileAppender" type="log4net.Appender.FileAppender"&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>      &lt;param name="File" value="./log-file.txt" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>      &lt;param name="AppendToFile" value="true" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>      &lt;layout type="log4net.Layout.PatternLayout"&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>        &lt;param name="Header" value="[Header]" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>        &lt;param name="Footer" value="[Footer]" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>        &lt;param name="ConversionPattern" value="%d [%t] %-5p %c - %m%n" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>      &lt;/layout&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       &lt;filter type="log4net.Filter.LevelRangeFilter"&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;param name="LevelMin" value="DEBUG" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;param name="LevelMax" value="WARN" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;/filter&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/appender&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;appender name="RollingFileAppender" type="log4net.Appender.RollingFileAppender"&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;!--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日志文件路径，“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>与“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作用相同，到达的目录相同，文件夹不存在则新建 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;file value="./Log/" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;!--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是否追加到文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;appendToFile value="true" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;!--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>记录日志写入文件时，不锁定文本文件，防止多线程时不能写</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Log,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>官方说线程非安全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;lockingModel type="log4net.Appender.FileAppender+MinimalLock" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;!--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Unicode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>编码</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;Encoding value="UTF-8" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;!--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最多产生的日志文件数，超过则只保留最新的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>个。设定值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>value="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>－</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为不限文件数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;maxSizeRollBackups value="-1" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;!--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是否只写到一个文件中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;staticLogFileName value="false" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;!--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>按照何种方式产生多个日志文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日期</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[Date],</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件大小</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[Size],</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>混合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[Composite])--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;param name="RollingStyle" value="Composite" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;!--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>按日期产生文件夹和文件名［在日期方式与混合方式下使用］</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;datePattern value="yyyy-MM-dd/&amp;quot;app.log&amp;quot;" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;!--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可用的单位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:KB|MB|GB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。不要使用小数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>否则会一直写入当前日志</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;maximumFileSize value="20KB" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;!--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>过滤设置，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LevelRangeFilter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为使用的过滤器。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;filter type="log4net.Filter.LevelRangeFilter"&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;param name="LevelMin" value="DEBUG" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;param name="LevelMax" value="WARN" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;/filter&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;!--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>记录的格式。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;layout type="log4net.Layout.PatternLayout"&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;conversionPattern value="%d [%t] %-5p %c - %m%n" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;/layout&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/appender&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Century"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3759427" cy="591059"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7180" name="Text Box 12"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="723900" y="43824525"/>
+          <a:ext cx="3759427" cy="591059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>读取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>log4net</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>配置文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+            <a:cs typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century"/>
+            </a:rPr>
+            <a:t>[assembly: log4net.Config.XmlConfigurator(Watch=true)]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Century"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2289,9 +6009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B11:B14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2317,9 +6035,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:H27"/>
+  <dimension ref="A3:H275"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2327,7 +6045,7 @@
     <col min="8" max="8" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="69">
+    <row r="3" spans="1:3" ht="60">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2402,95 +6120,602 @@
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" ht="15">
+      <c r="B189" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" ht="15">
+      <c r="B191" s="21"/>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8">
+      <c r="B257" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8">
+      <c r="B259" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" ht="14.25" thickBot="1">
+      <c r="B260" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" ht="14.25" thickBot="1">
+      <c r="B261" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C261" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D261" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E261" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F261" s="29"/>
+      <c r="G261" s="31"/>
+      <c r="H261" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" ht="14.25" thickBot="1">
+      <c r="B262" s="28"/>
+      <c r="C262" s="28"/>
+      <c r="D262" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E262" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F262" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G262" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H262" s="28"/>
+    </row>
+    <row r="263" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B263" s="24">
+        <v>1</v>
+      </c>
+      <c r="C263" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D263" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E263" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F263" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G263" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H263" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" ht="24.75" thickBot="1">
+      <c r="B264" s="24">
+        <v>2</v>
+      </c>
+      <c r="C264" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D264" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E264" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F264" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G264" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H264" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B265" s="24">
+        <v>3</v>
+      </c>
+      <c r="C265" s="33"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F265" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G265" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H265" s="35"/>
+    </row>
+    <row r="266" spans="2:8" ht="24.75" thickBot="1">
+      <c r="B266" s="24">
+        <v>4</v>
+      </c>
+      <c r="C266" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D266" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E266" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F266" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G266" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H266" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B267" s="24">
+        <v>5</v>
+      </c>
+      <c r="C267" s="33"/>
+      <c r="D267" s="33"/>
+      <c r="E267" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F267" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G267" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H267" s="35"/>
+    </row>
+    <row r="268" spans="2:8" ht="24.75" thickBot="1">
+      <c r="B268" s="24">
+        <v>6</v>
+      </c>
+      <c r="C268" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D268" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E268" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F268" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G268" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H268" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B269" s="24">
+        <v>7</v>
+      </c>
+      <c r="C269" s="33"/>
+      <c r="D269" s="33"/>
+      <c r="E269" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F269" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G269" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H269" s="35"/>
+    </row>
+    <row r="270" spans="2:8" ht="24.75" thickBot="1">
+      <c r="B270" s="24">
+        <v>8</v>
+      </c>
+      <c r="C270" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D270" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E270" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F270" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G270" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H270" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B271" s="24">
+        <v>9</v>
+      </c>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F271" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G271" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H271" s="35"/>
+    </row>
+    <row r="272" spans="2:8" ht="24.75" thickBot="1">
+      <c r="B272" s="24">
+        <v>10</v>
+      </c>
+      <c r="C272" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D272" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E272" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F272" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G272" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H272" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B273" s="24">
+        <v>11</v>
+      </c>
+      <c r="C273" s="33"/>
+      <c r="D273" s="33"/>
+      <c r="E273" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F273" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G273" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H273" s="35"/>
+    </row>
+    <row r="274" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B274" s="24">
+        <v>12</v>
+      </c>
+      <c r="C274" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D274" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E274" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F274" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G274" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H274" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B275" s="24">
+        <v>13</v>
+      </c>
+      <c r="C275" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D275" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E275" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F275" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G275" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H275" s="26" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="25">
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="D272:D273"/>
+    <mergeCell ref="H272:H273"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="H268:H269"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="D270:D271"/>
+    <mergeCell ref="H270:H271"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="H264:H265"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="H266:H267"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="E261:G261"/>
+    <mergeCell ref="H261:H262"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <oleObject progId="Visio.Drawing.11" shapeId="7169" r:id="rId4"/>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -2498,9 +6723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2673,9 +6896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ57" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2697,7 +6918,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2707,9 +6928,10 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="6146" r:id="rId2"/>
+    <oleObject progId="Visio.Drawing.11" shapeId="6146" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
